--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="170">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="169">
   <si>
     <t>Table 27: Corporate governance</t>
   </si>
@@ -1375,38 +1372,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="13">
         <v>100</v>
@@ -1415,15 +1410,15 @@
         <v>16</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="16">
         <v>9</v>
@@ -1432,15 +1427,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="20">
         <v>16</v>
@@ -1454,10 +1449,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
@@ -1466,15 +1461,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="20">
         <v>33</v>
@@ -1483,15 +1478,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="20">
         <v>38</v>
@@ -1500,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="20">
         <v>29</v>
@@ -1517,15 +1512,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="20">
         <v>3399</v>
@@ -1539,10 +1534,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="16">
         <v>24</v>
@@ -1551,15 +1546,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="23">
         <v>6</v>
@@ -1568,15 +1563,15 @@
         <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="27">
         <v>3656</v>
@@ -1590,10 +1585,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="20">
         <v>7</v>
@@ -1602,15 +1597,15 @@
         <v>3</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="20">
         <v>70</v>
@@ -1619,32 +1614,32 @@
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="20">
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="13">
         <v>6</v>
@@ -1653,15 +1648,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="C18" s="13">
         <v>14</v>
@@ -1670,15 +1665,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="16">
         <v>26</v>
@@ -1687,15 +1682,15 @@
         <v>8</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -1704,15 +1699,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="13">
         <v>28</v>
@@ -1726,27 +1721,27 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="27">
         <v>158</v>
@@ -1760,10 +1755,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="20">
         <v>4</v>
@@ -1772,15 +1767,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="20">
         <v>4</v>
@@ -1789,32 +1784,32 @@
         <v>2</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="20">
         <v>43</v>
@@ -1823,15 +1818,15 @@
         <v>7</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="20">
         <v>456</v>
@@ -1845,10 +1840,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="20">
         <v>71</v>
@@ -1857,15 +1852,15 @@
         <v>10</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="20">
         <v>178</v>
@@ -1879,10 +1874,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="20">
         <v>11</v>
@@ -1891,15 +1886,15 @@
         <v>5</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C32" s="20">
         <v>6</v>
@@ -1908,15 +1903,15 @@
         <v>6</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="20">
         <v>5</v>
@@ -1925,32 +1920,32 @@
         <v>3</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="20">
         <v>69</v>
@@ -1959,15 +1954,15 @@
         <v>23</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C36" s="20">
         <v>86</v>
@@ -1976,15 +1971,15 @@
         <v>31</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="20">
         <v>125</v>
@@ -1993,15 +1988,15 @@
         <v>40</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="27">
         <v>1059</v>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>79</v>
       </c>
       <c r="C39" s="13">
         <v>477</v>
@@ -2032,10 +2027,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C40" s="20">
         <v>1839</v>
@@ -2049,10 +2044,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="C41" s="13">
         <v>47</v>
@@ -2061,15 +2056,15 @@
         <v>9</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>85</v>
       </c>
       <c r="C42" s="13">
         <v>4</v>
@@ -2078,15 +2073,15 @@
         <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="20">
         <v>1099</v>
@@ -2100,10 +2095,10 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C44" s="20">
         <v>1077</v>
@@ -2117,10 +2112,10 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="27">
         <v>4543</v>
@@ -2134,10 +2129,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C46" s="20">
         <v>40</v>
@@ -2146,15 +2141,15 @@
         <v>5</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C47" s="20">
         <v>29</v>
@@ -2163,15 +2158,15 @@
         <v>5</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C48" s="20">
         <v>32</v>
@@ -2180,15 +2175,15 @@
         <v>2</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="20">
         <v>227</v>
@@ -2197,32 +2192,32 @@
         <v>36</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C50" s="20">
         <v>1</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="C51" s="16">
         <v>110</v>
@@ -2231,15 +2226,15 @@
         <v>62</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="20">
         <v>10</v>
@@ -2248,32 +2243,32 @@
         <v>4</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="C53" s="20">
         <v>2</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C54" s="20">
         <v>8</v>
@@ -2282,15 +2277,15 @@
         <v>5</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="C55" s="20">
         <v>19</v>
@@ -2299,15 +2294,15 @@
         <v>11</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="C56" s="20">
         <v>8</v>
@@ -2316,15 +2311,15 @@
         <v>4</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>114</v>
       </c>
       <c r="C57" s="13">
         <v>368</v>
@@ -2333,15 +2328,15 @@
         <v>77</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="C58" s="20">
         <v>74</v>
@@ -2355,27 +2350,27 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="C59" s="20">
         <v>1</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="16">
         <v>25</v>
@@ -2384,15 +2379,15 @@
         <v>10</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="27">
         <v>954</v>
@@ -2406,10 +2401,10 @@
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="33">
         <v>10370</v>
@@ -2423,10 +2418,10 @@
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="33">
         <v>895429</v>
@@ -2440,10 +2435,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="37">
         <v>50279</v>
@@ -2457,10 +2452,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="40">
         <v>397666</v>
@@ -2474,10 +2469,10 @@
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="43">
         <v>905799</v>
@@ -2491,10 +2486,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="40">
         <v>4048</v>
@@ -2508,10 +2503,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="40">
         <v>5070</v>
@@ -2525,10 +2520,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="40">
         <v>685</v>
@@ -2542,10 +2537,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="40">
         <v>269</v>
@@ -2559,10 +2554,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="40">
         <v>954</v>
@@ -2576,10 +2571,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="40">
         <v>703</v>
@@ -2593,10 +2588,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="40">
         <v>4027</v>
@@ -2610,10 +2605,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="40">
         <v>2704</v>
@@ -2627,10 +2622,10 @@
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="43">
         <v>178</v>
@@ -2639,15 +2634,15 @@
         <v>29</v>
       </c>
       <c r="E75" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="40">
         <v>37064</v>
@@ -2661,10 +2656,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="40">
         <v>41575</v>
@@ -2678,10 +2673,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="40">
         <v>285230</v>
@@ -2695,10 +2690,10 @@
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="43">
         <v>417663</v>
@@ -2712,10 +2707,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="40">
         <v>1050</v>
@@ -2729,10 +2724,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="40">
         <v>16040</v>
@@ -2746,10 +2741,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="40">
         <v>9320</v>
@@ -2763,10 +2758,10 @@
     </row>
     <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="43">
         <v>879389</v>
@@ -2780,10 +2775,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="40">
         <v>539</v>
@@ -2792,15 +2787,15 @@
         <v>154</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" s="40">
         <v>122</v>
@@ -2814,10 +2809,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="40">
         <v>6129</v>
@@ -2831,10 +2826,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="40">
         <v>54991</v>
@@ -2848,10 +2843,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="40">
         <v>3696</v>
@@ -2865,10 +2860,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="40">
         <v>431801</v>
@@ -2882,10 +2877,10 @@
     </row>
     <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="43">
         <v>408448</v>
@@ -2899,10 +2894,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="40">
         <v>877</v>
@@ -2916,10 +2911,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="40">
         <v>974</v>
@@ -2933,10 +2928,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C93" s="40">
         <v>222</v>
@@ -2950,10 +2945,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="40">
         <v>4472</v>
@@ -2967,10 +2962,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" s="40">
         <v>339</v>
@@ -2984,10 +2979,10 @@
     </row>
     <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="43">
         <v>2624</v>
@@ -3001,10 +2996,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" s="40">
         <v>1929</v>
@@ -3018,10 +3013,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C98" s="40">
         <v>5107</v>
@@ -3035,10 +3030,10 @@
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" s="43">
         <v>347</v>
@@ -3059,27 +3054,27 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -3087,27 +3082,27 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3112,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 01 July 2021).</t>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab27.xlsx
+++ b/AfDD_2022_Annex_Table_Tab27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 01 July 2021).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -5721,7 +5721,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
